--- a/Git_y_Github_Menendez_Gonzalo/Cheet Sheet.xlsx
+++ b/Git_y_Github_Menendez_Gonzalo/Cheet Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GNMO\Desktop\Certified Tech Developer\1° Bimestre\Introducción a la informática\camada8_roberto\Git_y_Github_Menendez_Gonzalo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1A82CD-862F-4822-A258-0270FADD65D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FED5220-A998-4959-B3C0-4471E8011734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="840" windowWidth="9975" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>ls</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Controla cual es el URL vinculado</t>
-  </si>
-  <si>
-    <t>git remote+A15:A24</t>
   </si>
   <si>
     <t>git commit -m "Descripción del commit"</t>
@@ -567,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,9 +683,9 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -712,10 +709,10 @@
     </row>
     <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -768,26 +765,26 @@
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
